--- a/loan_dataset.xlsx
+++ b/loan_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,44 +528,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QEGN4706</t>
+          <t>FS1A6WSR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALIYU SULAIMAN SALIHU</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>643514542</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8067520570</v>
+          <t>Aliyu Sulaiman Salihu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>62466453465</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08067520570</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>214000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>654100</v>
+        <v>854000</v>
       </c>
       <c r="H2" t="n">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primary</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M2" t="b">
@@ -575,86 +579,18 @@
         <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>mAIZE</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7888574</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NJTMPJ34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ALIYU SULAIMAN SALIHU</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>643514542</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>08067520570</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>28</v>
-      </c>
-      <c r="F3" t="n">
-        <v>214000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>654100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>370</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Primary</t>
-        </is>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>mAIZE</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>7888574</v>
+        <v>854100</v>
       </c>
     </row>
   </sheetData>

--- a/loan_dataset.xlsx
+++ b/loan_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,15 +536,11 @@
           <t>Aliyu Sulaiman Salihu</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>62466453465</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>08067520570</t>
-        </is>
+      <c r="C2" t="n">
+        <v>62466453465</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8067520570</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
@@ -567,11 +563,7 @@
       <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -591,6 +583,478 @@
       </c>
       <c r="R2" t="n">
         <v>854100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L0HBYZLP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fddfbfdbfdbf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>djhmhmhmhm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gfngfngfngfnn</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>826</v>
+      </c>
+      <c r="G3" t="n">
+        <v>628686</v>
+      </c>
+      <c r="H3" t="n">
+        <v>446</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Secondary</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Cotton</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>9666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9AAJ7AXX</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>85868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>857287585</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85287587585</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>752875857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8527858578</v>
+      </c>
+      <c r="H4" t="n">
+        <v>571</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Secondary</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Sorghum</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>65545464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6RJC3RAR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sadik Garba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>65418468486</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5841846184</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>455454</v>
+      </c>
+      <c r="G5" t="n">
+        <v>98987897</v>
+      </c>
+      <c r="H5" t="n">
+        <v>433</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Secondary</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>965200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8GLRF3ZI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">winner </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>87487876</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chukudi</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F6" t="n">
+        <v>65145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5686868</v>
+      </c>
+      <c r="H6" t="n">
+        <v>364</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>948454</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JBVFVRBG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wazikii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8674468674</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65841545415</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>635416465</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64545646</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Tertiary</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>5416448</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9K9R6FIR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>uyegfbhjgfdjhgfd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>687615454</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6861454553</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6481546</v>
+      </c>
+      <c r="G8" t="n">
+        <v>698658</v>
+      </c>
+      <c r="H8" t="n">
+        <v>471</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>56415454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CFEQRNTB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>jkjhgfhbgfhfd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hgfdhfgbfgjgfj</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sdfgfdshfghgfhd</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>86</v>
+      </c>
+      <c r="G9" t="n">
+        <v>543034</v>
+      </c>
+      <c r="H9" t="n">
+        <v>787</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Secondary</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>887</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>656353</v>
       </c>
     </row>
   </sheetData>
